--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="1900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8820" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="362">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -310,13 +310,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>已有士兵正在被招募</t>
-  </si>
-  <si>
-    <t>soldiersAreRecruitingNow</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>招募数量超过单次招募上限</t>
   </si>
   <si>
@@ -353,14 +346,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>soldierTreatEventExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>士兵治疗事件已存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>龙蛋早已成功孵化</t>
   </si>
   <si>
@@ -1063,14 +1048,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>onlyAllianceDecorateBuildingCanBeDistroy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能拆除联盟装饰物</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此联盟事件已经激活</t>
   </si>
   <si>
@@ -1362,6 +1339,18 @@
   </si>
   <si>
     <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1500,7 +1489,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1664">
+  <cellStyleXfs count="1684">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3169,6 +3158,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3182,7 +3191,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1664">
+  <cellStyles count="1684">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4017,6 +4026,16 @@
     <cellStyle name="超链接" xfId="1658" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1660" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4844,6 +4863,16 @@
     <cellStyle name="访问过的超链接" xfId="1659" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1661" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5293,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106:B182"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5483,7 +5512,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -5725,13 +5754,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -5758,24 +5787,24 @@
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3">
         <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
@@ -5802,13 +5831,13 @@
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
         <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
@@ -5945,7 +5974,7 @@
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
@@ -5962,12 +5991,12 @@
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
         <v>560</v>
@@ -5984,7 +6013,7 @@
         <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
@@ -6187,13 +6216,13 @@
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
@@ -6209,7 +6238,7 @@
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3">
         <v>582</v>
@@ -6220,13 +6249,13 @@
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="3">
         <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
@@ -6451,7 +6480,7 @@
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
@@ -6468,12 +6497,12 @@
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
@@ -6490,7 +6519,7 @@
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
@@ -6517,7 +6546,7 @@
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
@@ -6528,68 +6557,68 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>226</v>
+        <v>358</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>364</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>362</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
@@ -6605,13 +6634,13 @@
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
@@ -6627,13 +6656,13 @@
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
@@ -6704,7 +6733,7 @@
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
@@ -6715,35 +6744,35 @@
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
@@ -6754,18 +6783,18 @@
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
@@ -6891,13 +6920,13 @@
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
@@ -6913,13 +6942,13 @@
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
@@ -6946,13 +6975,13 @@
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
@@ -7001,13 +7030,13 @@
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
@@ -7034,13 +7063,13 @@
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
@@ -7221,90 +7250,79 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="20" customHeight="1">
-      <c r="A182" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B182" s="3">
-        <v>681</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5220" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1351,6 +1351,30 @@
   </si>
   <si>
     <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能切换到相同的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSameServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1489,7 +1513,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1684">
+  <cellStyleXfs count="1692">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3178,6 +3202,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3191,7 +3223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1684">
+  <cellStyles count="1692">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4036,6 +4068,10 @@
     <cellStyle name="超链接" xfId="1678" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4873,6 +4909,10 @@
     <cellStyle name="访问过的超链接" xfId="1679" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5322,10 +5362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D181" sqref="D181"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7325,6 +7365,39 @@
         <v>187</v>
       </c>
     </row>
+    <row r="182" spans="1:3" ht="20" customHeight="1">
+      <c r="A182" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="1">
+        <v>681</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="20" customHeight="1">
+      <c r="A183" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B183" s="1">
+        <v>682</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -564,13 +564,6 @@
   </si>
   <si>
     <t>sellItemNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>银币不足</t>
-  </si>
-  <si>
-    <t>coinNotEnough</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5362,10 +5355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5552,7 +5545,7 @@
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
@@ -5794,13 +5787,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6245,35 +6238,35 @@
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B82" s="3">
         <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
@@ -6509,7 +6502,7 @@
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
@@ -6520,13 +6513,13 @@
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3">
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6537,7 +6530,7 @@
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -6575,7 +6568,7 @@
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
@@ -6586,57 +6579,57 @@
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>358</v>
+        <v>224</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>356</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6663,24 +6656,24 @@
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
@@ -6762,7 +6755,7 @@
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
@@ -6773,46 +6766,46 @@
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
@@ -6971,24 +6964,24 @@
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
@@ -7059,24 +7052,24 @@
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
@@ -7279,29 +7272,29 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7312,7 +7305,7 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7329,29 +7322,29 @@
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>359</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
@@ -7362,14 +7355,14 @@
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>187</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -7380,22 +7373,11 @@
       <c r="A183" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20" customHeight="1">
-      <c r="A184" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B184" s="1">
-        <v>683</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1320" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -968,13 +968,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此玩家已被邀请加入我方联盟,请等候其处理</t>
-  </si>
-  <si>
-    <t>inviteRequestAlreadySend</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此玩家的邀请信息已满,请等候其处理后再进行邀请</t>
   </si>
   <si>
@@ -1263,111 +1256,122 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>账号GameCenter账号已经绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>userAlreadyBindGCAId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号未被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>当前玩家还未绑定GameCenter账号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此GameCenter账号已绑定当前玩家</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApnIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSoldierIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此士兵还处于锁定状态</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器通讯出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAP服务器关闭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>netErrorWithIapServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>iapServerNotAvailable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟建筑不允许移动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingNotAllowMove</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼品不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giftNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能切换到相同的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSameServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGCAId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>玩家GameCenter账号已经绑定</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>此GameCenter账号已被其他玩家绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theUserDoNotBindGCId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此GameCenter账号已绑定当前玩家</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdIsNotBindedByOtherUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentUser</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theSoldierIsLocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此士兵还处于锁定状态</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器通讯出错</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>netErrorWithIapServer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>此联盟建筑不允许移动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingNotAllowMove</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>theAllianceBuildingCanNotMoveToTargetPoint</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼品不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giftNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器不存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverNotExist</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能切换到相同的服务器</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>canNotSwitchToTheSameServer</t>
+    <t>theGCIdIsNotBindedByOtherPlayer</t>
+  </si>
+  <si>
+    <t>thePlayerDoNotBindGCId</t>
+  </si>
+  <si>
+    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
+  </si>
+  <si>
+    <t>玩家未在当前服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotInCurrentServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有事件需要协助加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noEventsNeedTobeSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1506,7 +1510,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1692">
+  <cellStyleXfs count="1694">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3203,6 +3207,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3216,7 +3222,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1692">
+  <cellStyles count="1694">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4065,6 +4071,7 @@
     <cellStyle name="超链接" xfId="1686" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4906,6 +4913,7 @@
     <cellStyle name="访问过的超链接" xfId="1687" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5355,10 +5363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5787,13 +5795,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6601,24 +6609,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6953,24 +6961,24 @@
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
@@ -7041,24 +7049,24 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
@@ -7250,123 +7258,123 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
@@ -7378,6 +7386,17 @@
       </c>
       <c r="C183" s="1" t="s">
         <v>364</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20" customHeight="1">
+      <c r="A184" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B184" s="1">
+        <v>683</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1200" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4100" yWindow="2660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1272,10 +1272,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1373,6 +1369,25 @@
   <si>
     <t>noEventsNeedTobeSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟人数已达最大</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceMemberCountReachMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战即将结束,不能派兵</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceFightWillEndCanNotSendTroops</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>apnIdAlreadySeted</t>
   </si>
 </sst>
 </file>
@@ -5363,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5795,13 +5810,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6609,24 +6624,24 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -7258,29 +7273,29 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
@@ -7291,7 +7306,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7302,7 +7317,7 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
@@ -7313,7 +7328,7 @@
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
@@ -7324,18 +7339,18 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
@@ -7346,57 +7361,79 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B184" s="1">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="20" customHeight="1">
+      <c r="A185" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B185" s="1">
+        <v>684</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B186" s="1">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="2660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="8040" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1388,6 +1388,22 @@
   </si>
   <si>
     <t>apnIdAlreadySeted</t>
+  </si>
+  <si>
+    <t>服务器繁忙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverTooBusy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家第二条队列已经解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerSecondMarchQueueAlreadyUnlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5378,10 +5394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7436,6 +7452,28 @@
         <v>369</v>
       </c>
     </row>
+    <row r="187" spans="1:3" ht="20" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="1">
+        <v>686</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4900" yWindow="1400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -669,13 +669,6 @@
   </si>
   <si>
     <t>playerNameAlreadyUsed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能修改为相同的城市名称</t>
-  </si>
-  <si>
-    <t>cityNameCanNotBeTheSame</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5394,10 +5387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5826,13 +5819,13 @@
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -6530,7 +6523,7 @@
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
@@ -6541,13 +6534,13 @@
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="3">
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
@@ -6558,7 +6551,7 @@
         <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
@@ -6596,7 +6589,7 @@
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
@@ -6607,57 +6600,57 @@
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>344</v>
+        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
@@ -6684,24 +6677,24 @@
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
@@ -6783,7 +6776,7 @@
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
@@ -6794,46 +6787,46 @@
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
@@ -6981,24 +6974,24 @@
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
@@ -7069,24 +7062,24 @@
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7278,90 +7271,90 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>347</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7372,7 +7365,7 @@
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7399,13 +7392,13 @@
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
@@ -7423,7 +7416,7 @@
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -7434,7 +7427,7 @@
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -7443,35 +7436,24 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B186" s="3">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B186" s="1">
-        <v>685</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>noActivePlayerId</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有激活的玩家Id</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>玩家不存在</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -93,12 +85,6 @@
   <si>
     <t>allianceNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家不存在于mongo数据库</t>
-  </si>
-  <si>
-    <t>playerNotExistInMongo</t>
   </si>
   <si>
     <t>服务器维护中</t>
@@ -1534,7 +1520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1694">
+  <cellStyleXfs count="1714">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3233,6 +3219,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3246,7 +3252,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1694">
+  <cellStyles count="1714">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4096,6 +4102,16 @@
     <cellStyle name="超链接" xfId="1688" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1690" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1694" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1712" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4938,6 +4954,16 @@
     <cellStyle name="访问过的超链接" xfId="1689" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1691" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1695" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1713" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5387,10 +5413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5434,13 +5460,13 @@
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <v>503</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -5456,24 +5482,24 @@
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>506</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -5489,46 +5515,46 @@
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
         <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
         <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
         <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -5544,46 +5570,46 @@
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3">
         <v>514</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
         <v>515</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -5665,7 +5691,7 @@
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
         <v>524</v>
@@ -5676,13 +5702,13 @@
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
         <v>525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -5693,7 +5719,7 @@
         <v>526</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -5797,46 +5823,46 @@
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="B37" s="3">
         <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3">
         <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>339</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
         <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>340</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
         <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -5852,13 +5878,13 @@
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3">
         <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
@@ -6017,7 +6043,7 @@
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3">
         <v>556</v>
@@ -6034,12 +6060,12 @@
         <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
         <v>558</v>
@@ -6056,7 +6082,7 @@
         <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
@@ -6248,13 +6274,13 @@
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B78" s="3">
         <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
@@ -6270,7 +6296,7 @@
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="3">
         <v>579</v>
@@ -6281,13 +6307,13 @@
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3">
         <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
@@ -6501,7 +6527,7 @@
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B101" s="3">
         <v>600</v>
@@ -6518,12 +6544,12 @@
         <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3">
         <v>602</v>
@@ -6540,7 +6566,7 @@
         <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
@@ -6567,7 +6593,7 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
@@ -6578,68 +6604,68 @@
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>220</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>343</v>
+        <v>218</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>344</v>
+        <v>220</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>342</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -6655,13 +6681,13 @@
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
@@ -6677,13 +6703,13 @@
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
@@ -6754,7 +6780,7 @@
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
@@ -6765,35 +6791,35 @@
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
@@ -6804,18 +6830,18 @@
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
@@ -6952,13 +6978,13 @@
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
@@ -6974,13 +7000,13 @@
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
@@ -7040,13 +7066,13 @@
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
@@ -7062,13 +7088,13 @@
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7249,24 +7275,24 @@
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
@@ -7277,7 +7303,7 @@
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
@@ -7288,62 +7314,62 @@
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>338</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
@@ -7354,7 +7380,7 @@
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
@@ -7370,24 +7396,24 @@
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
@@ -7414,46 +7440,24 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="20" customHeight="1">
-      <c r="A186" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B186" s="3">
-        <v>685</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="20" customHeight="1">
-      <c r="A187" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B187" s="3">
-        <v>686</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1382,6 +1382,14 @@
   </si>
   <si>
     <t>playerSecondMarchQueueAlreadyUnlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长任务奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>growUpTaskRewardAlreadyGet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1528,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1714">
+  <cellStyleXfs count="1720">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3239,6 +3247,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3252,7 +3266,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1714">
+  <cellStyles count="1720">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4112,6 +4126,9 @@
     <cellStyle name="超链接" xfId="1708" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1718" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -4964,6 +4981,9 @@
     <cellStyle name="访问过的超链接" xfId="1709" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1719" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5413,10 +5433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6582,881 +6602,892 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B107" s="3">
         <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B108" s="3">
         <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="3">
         <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3">
         <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B111" s="3">
         <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B112" s="3">
         <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
         <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
         <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
         <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
         <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
         <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
         <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
         <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
         <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
         <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
         <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
         <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
         <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
         <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
         <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
         <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
         <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
         <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
         <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
         <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
         <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
         <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
         <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
         <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
         <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
         <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
         <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
         <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
         <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
         <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
         <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
         <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
         <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
         <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
         <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
         <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
         <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
         <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
         <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
         <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B152" s="3">
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B153" s="3">
         <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B154" s="3">
         <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B155" s="3">
         <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B156" s="3">
         <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B157" s="3">
         <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B158" s="3">
         <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B159" s="3">
         <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B160" s="3">
         <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B161" s="3">
         <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B162" s="3">
         <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B163" s="3">
         <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B164" s="3">
         <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B165" s="3">
         <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B166" s="3">
         <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B167" s="3">
         <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B168" s="3">
         <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B169" s="3">
         <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B172" s="3">
         <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B173" s="3">
         <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B174" s="3">
         <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B176" s="3">
         <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B177" s="3">
         <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B178" s="3">
         <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
         <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
         <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B181" s="3">
         <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B182" s="3">
         <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B183" s="3">
         <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B185" s="3">
         <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20" customHeight="1">
+      <c r="A186" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="3">
+        <v>685</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>368</v>
       </c>
     </row>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1390,6 +1390,14 @@
   </si>
   <si>
     <t>growUpTaskRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法的请求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>illegalRequest</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5433,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7491,6 +7499,17 @@
         <v>368</v>
       </c>
     </row>
+    <row r="187" spans="1:3" ht="20" customHeight="1">
+      <c r="A187" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B187" s="1">
+        <v>686</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1398,6 +1398,14 @@
   </si>
   <si>
     <t>illegalRequest</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据已经初始化</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerDataAlreadyInited</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5441,10 +5449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7510,6 +7518,17 @@
         <v>372</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1355,14 +1355,6 @@
   </si>
   <si>
     <t>allianceMemberCountReachMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战即将结束,不能派兵</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceFightWillEndCanNotSendTroops</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5449,10 +5441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6618,13 +6610,13 @@
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B106" s="3">
         <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
@@ -7377,7 +7369,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B175" s="3">
         <v>674</v>
@@ -7476,13 +7468,13 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B184" s="3">
         <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
@@ -7498,35 +7490,24 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B186" s="3">
         <v>685</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20" customHeight="1">
-      <c r="A188" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1400" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5160" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1398,6 +1398,22 @@
   </si>
   <si>
     <t>playerDataAlreadyInited</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备禁止登陆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家禁止登录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5441,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7510,6 +7526,28 @@
         <v>372</v>
       </c>
     </row>
+    <row r="188" spans="1:3" ht="20" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="20" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B189" s="1">
+        <v>688</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1414,6 +1414,22 @@
   </si>
   <si>
     <t>playerLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次加入联盟奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstJoinAllianceRewardAlreadyGeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导已经完成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fteAlreadyFinished</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1552,7 +1568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1720">
+  <cellStyleXfs count="1728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3277,6 +3293,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3290,7 +3314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1720">
+  <cellStyles count="1728">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4153,6 +4177,10 @@
     <cellStyle name="超链接" xfId="1714" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1716" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5008,6 +5036,10 @@
     <cellStyle name="访问过的超链接" xfId="1715" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1717" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5457,10 +5489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190"/>
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7548,6 +7580,28 @@
         <v>375</v>
       </c>
     </row>
+    <row r="190" spans="1:3" ht="20" customHeight="1">
+      <c r="A190" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B190" s="1">
+        <v>689</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="20" customHeight="1">
+      <c r="A191" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B191" s="1">
+        <v>690</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1430,6 +1430,14 @@
   </si>
   <si>
     <t>fteAlreadyFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求出错</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonError</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1728">
+  <cellStyleXfs count="1730">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3301,6 +3309,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3314,7 +3324,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1728">
+  <cellStyles count="1730">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4181,6 +4191,7 @@
     <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5040,6 +5051,7 @@
     <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5489,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5514,2091 +5526,2102 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="B38" s="3">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="3">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="3">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="3">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="3">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="3">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="3">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="3">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="3">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="3">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="3">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="3">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="3">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="3">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="3">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="3">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="3">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="3">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="3">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" s="3">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" s="3">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="3">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="3">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B100" s="3">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B101" s="3">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="3">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="B106" s="3">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="B107" s="3">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B108" s="3">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" s="3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B111" s="3">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B112" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B113" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B116" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B117" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B119" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B121" s="3">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B123" s="3">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B124" s="3">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" s="3">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="3">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="3">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B128" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B129" s="3">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" s="3">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B131" s="3">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B132" s="3">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B133" s="3">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B134" s="3">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B135" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="3">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B137" s="3">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B138" s="3">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B140" s="3">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B141" s="3">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B142" s="3">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" s="3">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B144" s="3">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B145" s="3">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B146" s="3">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B147" s="3">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148" s="3">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B149" s="3">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B150" s="3">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B151" s="3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B152" s="3">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B153" s="3">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B154" s="3">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B155" s="3">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B156" s="3">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B157" s="3">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B158" s="3">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B159" s="3">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B160" s="3">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="3">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B162" s="3">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B163" s="3">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B164" s="3">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" s="3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B166" s="3">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B167" s="3">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B168" s="3">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B169" s="3">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B170" s="3">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B171" s="3">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B172" s="3">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B173" s="3">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" s="3">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B175" s="3">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B177" s="3">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B179" s="3">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B180" s="3">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B181" s="3">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182" s="3">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" s="3">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" s="3">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B185" s="3">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B186" s="3">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B187" s="3">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
+        <v>373</v>
+      </c>
+      <c r="B188" s="3">
+        <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B190" s="1">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="1">
+        <v>689</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="20" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B192" s="1">
         <v>690</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>380</v>
       </c>
     </row>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1430,14 +1430,6 @@
   </si>
   <si>
     <t>fteAlreadyFinished</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求出错</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>commonError</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1576,7 +1568,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1730">
+  <cellStyleXfs count="1728">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3309,8 +3301,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3324,7 +3314,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1730">
+  <cellStyles count="1728">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4191,7 +4181,6 @@
     <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5051,7 +5040,6 @@
     <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5501,10 +5489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5526,2102 +5514,2091 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B15" s="3">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="3">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="3">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B25" s="3">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="3">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="3">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="3">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="B37" s="3">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="B38" s="3">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="3">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B44" s="3">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="3">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="3">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B61" s="3">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B62" s="3">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B63" s="3">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B64" s="3">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B65" s="3">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B66" s="3">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B67" s="3">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B68" s="3">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B70" s="3">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B71" s="3">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B72" s="3">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B73" s="3">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B74" s="3">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B75" s="3">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B76" s="3">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B77" s="3">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B78" s="3">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" s="3">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B80" s="3">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="3">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="3">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" s="3">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" s="3">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" s="3">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B87" s="3">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B88" s="3">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B89" s="3">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B90" s="3">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B91" s="3">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B92" s="3">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B93" s="3">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B94" s="3">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B95" s="3">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B96" s="3">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B97" s="3">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B98" s="3">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B99" s="3">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B100" s="3">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B101" s="3">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B102" s="3">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B103" s="3">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B104" s="3">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B105" s="3">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="B106" s="3">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>207</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="B107" s="3">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B108" s="3">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" s="3">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B110" s="3">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>214</v>
+        <v>339</v>
       </c>
       <c r="B111" s="3">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B112" s="3">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B152" s="3">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B153" s="3">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B154" s="3">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B155" s="3">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B156" s="3">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B157" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B158" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B159" s="3">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B160" s="3">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B161" s="3">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B162" s="3">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B163" s="3">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B164" s="3">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B165" s="3">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B166" s="3">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B167" s="3">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B168" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B169" s="3">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B170" s="3">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B171" s="3">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B172" s="3">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B173" s="3">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B174" s="3">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B175" s="3">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B176" s="3">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B177" s="3">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>179</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B178" s="3">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B181" s="3">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B182" s="3">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B183" s="3">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B184" s="3">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B185" s="3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B186" s="3">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B187" s="3">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B188" s="3">
-        <v>686</v>
+        <v>376</v>
+      </c>
+      <c r="B188" s="1">
+        <v>687</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B189" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B190" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B191" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="20" customHeight="1">
-      <c r="A192" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B192" s="1">
-        <v>690</v>
-      </c>
-      <c r="C192" s="1" t="s">
         <v>380</v>
       </c>
     </row>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="1000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4840" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1430,6 +1430,14 @@
   </si>
   <si>
     <t>fteAlreadyFinished</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonError</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1576,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1728">
+  <cellStyleXfs count="1730">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3301,6 +3309,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3314,7 +3324,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1728">
+  <cellStyles count="1730">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4181,6 +4191,7 @@
     <cellStyle name="超链接" xfId="1722" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5040,6 +5051,7 @@
     <cellStyle name="访问过的超链接" xfId="1723" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5489,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A192" sqref="A192"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5514,2091 +5526,2102 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="B2" s="3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B16" s="3">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="3">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="3">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="3">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="3">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="3">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="3">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="3">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>335</v>
+        <v>71</v>
       </c>
       <c r="B37" s="3">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>335</v>
       </c>
       <c r="B38" s="3">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="3">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="3">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B45" s="3">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B46" s="3">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B47" s="3">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="3">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B49" s="3">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B51" s="3">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="3">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="3">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="3">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="3">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" s="3">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="3">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="3">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" s="3">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="3">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="3">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B67" s="3">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B68" s="3">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69" s="3">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B71" s="3">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B72" s="3">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B73" s="3">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B74" s="3">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B75" s="3">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B76" s="3">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="3">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B79" s="3">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B80" s="3">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B81" s="3">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B82" s="3">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B83" s="3">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="3">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="3">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B86" s="3">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B87" s="3">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88" s="3">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B89" s="3">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B90" s="3">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B91" s="3">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" s="3">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B93" s="3">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B94" s="3">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B95" s="3">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B96" s="3">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B97" s="3">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B98" s="3">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B99" s="3">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B100" s="3">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B101" s="3">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" s="3">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B103" s="3">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B104" s="3">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B105" s="3">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>369</v>
+        <v>208</v>
       </c>
       <c r="B106" s="3">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>368</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>210</v>
+        <v>369</v>
       </c>
       <c r="B107" s="3">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B108" s="3">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B109" s="3">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" s="3">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="B111" s="3">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B112" s="3">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>218</v>
+        <v>340</v>
       </c>
       <c r="B113" s="3">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B114" s="3">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B115" s="3">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B116" s="3">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B117" s="3">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B118" s="3">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B119" s="3">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B120" s="3">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B121" s="3">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B122" s="3">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B123" s="3">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B124" s="3">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" s="3">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="3">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127" s="3">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B128" s="3">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B129" s="3">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B130" s="3">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B131" s="3">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B132" s="3">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B133" s="3">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B134" s="3">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B135" s="3">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B136" s="3">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B137" s="3">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B138" s="3">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B139" s="3">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B140" s="3">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B141" s="3">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B142" s="3">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B143" s="3">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B144" s="3">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B145" s="3">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B146" s="3">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B147" s="3">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148" s="3">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B149" s="3">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B150" s="3">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B151" s="3">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B152" s="3">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B153" s="3">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B154" s="3">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B155" s="3">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B156" s="3">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B157" s="3">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B158" s="3">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B159" s="3">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B160" s="3">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B161" s="3">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B162" s="3">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B163" s="3">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B164" s="3">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B165" s="3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B166" s="3">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B167" s="3">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B168" s="3">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B169" s="3">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B170" s="3">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B171" s="3">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B172" s="3">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B173" s="3">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B174" s="3">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B175" s="3">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="B176" s="3">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B177" s="3">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>344</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B179" s="3">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B180" s="3">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B181" s="3">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B182" s="3">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B183" s="3">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B184" s="3">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B185" s="3">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B186" s="3">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B187" s="3">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B188" s="1">
-        <v>687</v>
+        <v>373</v>
+      </c>
+      <c r="B188" s="3">
+        <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B189" s="1">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B190" s="1">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="1">
+        <v>689</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="20" customHeight="1">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B192" s="1">
         <v>690</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>380</v>
       </c>
     </row>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="2020" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1438,6 +1438,22 @@
   </si>
   <si>
     <t>commonError</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本验证失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionValidateFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本不匹配</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionNotEqual</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5501,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7625,6 +7641,28 @@
         <v>380</v>
       </c>
     </row>
+    <row r="193" spans="1:3" ht="20" customHeight="1">
+      <c r="A193" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B193" s="1">
+        <v>691</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="20" customHeight="1">
+      <c r="A194" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B194" s="1">
+        <v>692</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="390">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1454,6 +1454,14 @@
   </si>
   <si>
     <t>versionNotEqual</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此联盟不需要申请加入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllianceDoNotNeedRequestToJoin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5517,10 +5525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A195" sqref="A195"/>
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7663,6 +7671,17 @@
         <v>386</v>
       </c>
     </row>
+    <row r="195" spans="1:3" ht="20" customHeight="1">
+      <c r="A195" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B195" s="1">
+        <v>693</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1462,6 +1462,14 @@
   </si>
   <si>
     <t>theAllianceDoNotNeedRequestToJoin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>野怪不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterNotExist</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1730">
+  <cellStyleXfs count="1734">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3335,6 +3343,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3348,7 +3360,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1730">
+  <cellStyles count="1734">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4216,6 +4228,8 @@
     <cellStyle name="超链接" xfId="1724" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1726" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5076,6 +5090,8 @@
     <cellStyle name="访问过的超链接" xfId="1725" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1727" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5525,10 +5541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7682,6 +7698,17 @@
         <v>388</v>
       </c>
     </row>
+    <row r="196" spans="1:3" ht="20" customHeight="1">
+      <c r="A196" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B196" s="1">
+        <v>694</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6020" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="394">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1470,6 +1470,14 @@
   </si>
   <si>
     <t>monsterNotExist</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能购买自己出售的商品</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotBuyYourOwnSellItem</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5541,10 +5549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="A198" sqref="A198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7709,6 +7717,17 @@
         <v>390</v>
       </c>
     </row>
+    <row r="197" spans="1:3" ht="20" customHeight="1">
+      <c r="A197" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B197" s="1">
+        <v>695</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="1220" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="5060" yWindow="3280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1478,6 +1478,62 @@
   </si>
   <si>
     <t>canNotBuyYourOwnSellItem</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化条件不满足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatchConditionNotMatch</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡未解锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveSecionIsLocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotGetPvEStarRewardyet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能领取PvE星级奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pve星级奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pveStarRewardAlreadyGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前关卡已达最大战斗次数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentSectionReachMaxFightCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家体力值不足</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerStaminaNotEnough</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前PvE关卡还不能被扫荡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentPvESectionCanNotBeSweepedYet</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1616,7 +1672,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1734">
+  <cellStyleXfs count="1766">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3355,6 +3411,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3368,7 +3456,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1734">
+  <cellStyles count="1766">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4238,6 +4326,22 @@
     <cellStyle name="超链接" xfId="1728" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1730" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1750" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1752" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1754" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1756" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1758" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5100,6 +5204,22 @@
     <cellStyle name="访问过的超链接" xfId="1729" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1731" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1751" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1753" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1755" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1757" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1759" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5549,10 +5669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C197"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7728,6 +7848,83 @@
         <v>392</v>
       </c>
     </row>
+    <row r="198" spans="1:3" ht="20" customHeight="1">
+      <c r="A198" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B198" s="1">
+        <v>696</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="20" customHeight="1">
+      <c r="A199" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B199" s="1">
+        <v>697</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="20" customHeight="1">
+      <c r="A200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B200" s="1">
+        <v>698</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="20" customHeight="1">
+      <c r="A201" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B201" s="1">
+        <v>699</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="20" customHeight="1">
+      <c r="A202" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" s="1">
+        <v>700</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="20" customHeight="1">
+      <c r="A203" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B203" s="1">
+        <v>700</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="20" customHeight="1">
+      <c r="A204" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B204" s="1">
+        <v>701</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="3280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -5672,7 +5672,7 @@
   <dimension ref="A1:C204"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+      <selection activeCell="B205" sqref="B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7908,7 +7908,7 @@
         <v>405</v>
       </c>
       <c r="B203" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>404</v>
@@ -7919,7 +7919,7 @@
         <v>407</v>
       </c>
       <c r="B204" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>406</v>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="412">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1534,6 +1534,22 @@
   </si>
   <si>
     <t>currentPvESectionCanNotBeSweepedYet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此邮件未包含奖励信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>thisMailNotContainsRewards</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>此邮件的奖励已经领取</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theRewardsAlreadyGetedFromThisMail</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1688,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1766">
+  <cellStyleXfs count="1774">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3443,6 +3459,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3456,7 +3480,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1766">
+  <cellStyles count="1774">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4342,6 +4366,10 @@
     <cellStyle name="超链接" xfId="1760" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1762" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1764" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1766" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5220,6 +5248,10 @@
     <cellStyle name="访问过的超链接" xfId="1761" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1763" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1765" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1767" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5669,10 +5701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C204"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B205" sqref="B205"/>
+      <selection activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7925,6 +7957,28 @@
         <v>406</v>
       </c>
     </row>
+    <row r="205" spans="1:3" ht="20" customHeight="1">
+      <c r="A205" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B205" s="1">
+        <v>703</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="20" customHeight="1">
+      <c r="A206" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" s="1">
+        <v>704</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="300" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5260" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1108,9 +1108,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>目标联盟未处于和平期,不能发起复仇</t>
-  </si>
-  <si>
     <t>targetAllianceNotInPeaceStatus</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1550,6 +1547,65 @@
   </si>
   <si>
     <t>theRewardsAlreadyGetedFromThisMail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家被禁言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerIsForbiddenToSpeak</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能观察自己的联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotViewYourOwnAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有空闲的地图区域</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noFreeMapArea</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家未观察此地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotViewThisMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveAllianceRightNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前还不能移动联盟</t>
+  </si>
+  <si>
+    <t>不能移动到目标地块</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotMoveToTargetMapIndex</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标联盟未处于和平期</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家将被攻打,不能退出联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1688,7 +1744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1774">
+  <cellStyleXfs count="1796">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3467,6 +3523,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3480,7 +3558,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1774">
+  <cellStyles count="1796">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4370,6 +4448,17 @@
     <cellStyle name="超链接" xfId="1768" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1770" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1772" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1774" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5252,6 +5341,17 @@
     <cellStyle name="访问过的超链接" xfId="1769" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1771" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1773" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1775" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5701,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A207" sqref="A207"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5726,13 +5826,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6122,13 +6222,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -6881,13 +6981,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -6936,24 +7036,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7387,282 +7487,282 @@
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B153" s="3">
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B154" s="3">
         <v>652</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B155" s="3">
         <v>653</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B156" s="3">
         <v>654</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B157" s="3">
         <v>655</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" s="3">
         <v>656</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B159" s="3">
         <v>657</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B160" s="3">
         <v>658</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B161" s="3">
         <v>659</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B162" s="3">
         <v>660</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B163" s="3">
         <v>661</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B164" s="3">
         <v>662</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B165" s="3">
         <v>663</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B166" s="3">
         <v>664</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167" s="3">
         <v>665</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B168" s="3">
         <v>666</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3">
         <v>667</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B170" s="3">
         <v>668</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7673,310 +7773,387 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="20" customHeight="1">
+      <c r="A207" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B207" s="1">
+        <v>705</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="20" customHeight="1">
+      <c r="A208" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B208" s="1">
+        <v>706</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="20" customHeight="1">
+      <c r="A209" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" s="1">
+        <v>707</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="20" customHeight="1">
+      <c r="A210" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="1">
+        <v>708</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="20" customHeight="1">
+      <c r="A211" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B211" s="1">
+        <v>709</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="20" customHeight="1">
+      <c r="A212" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="1">
+        <v>710</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="20" customHeight="1">
+      <c r="A213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B213" s="1">
+        <v>711</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5260" yWindow="240" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="5840" yWindow="0" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1607,6 +1607,12 @@
   <si>
     <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您有商品正在出售,不能切换服务器</t>
+  </si>
+  <si>
+    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
   </si>
 </sst>
 </file>
@@ -5801,10 +5807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8156,6 +8162,17 @@
         <v>424</v>
       </c>
     </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>712</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="0" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3880" yWindow="520" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1613,6 +1613,22 @@
   </si>
   <si>
     <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
+  </si>
+  <si>
+    <t>联盟宫殿等级过低,不能移动联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟数量已达最大,不能创建新联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceCountReachMaxCanNotCreateNewAlliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1750,7 +1766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1796">
+  <cellStyleXfs count="1804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3551,6 +3567,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3564,7 +3588,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1796">
+  <cellStyles count="1804">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4465,6 +4489,10 @@
     <cellStyle name="超链接" xfId="1790" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1792" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1794" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1796" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5358,6 +5386,10 @@
     <cellStyle name="访问过的超链接" xfId="1791" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1793" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1795" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1797" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5807,10 +5839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8173,6 +8205,28 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="1">
+        <v>713</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>714</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="520" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="4940" yWindow="700" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1620,14 +1620,6 @@
   </si>
   <si>
     <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟数量已达最大,不能创建新联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>allianceCountReachMaxCanNotCreateNewAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5839,10 +5831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8216,17 +8208,6 @@
         <v>428</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="20" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="1">
-        <v>714</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="700" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3660" yWindow="120" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1612,15 +1612,15 @@
     <t>您有商品正在出售,不能切换服务器</t>
   </si>
   <si>
-    <t>canNotQuitAllianceForPlayerWillBeAttacked</t>
-  </si>
-  <si>
     <t>联盟宫殿等级过低,不能移动联盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>alliancePalaceLevelTooLowCanNotMoveAlliance</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>youHaveProductInSellCanNotSwitchServer</t>
   </si>
 </sst>
 </file>
@@ -5833,13 +5833,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
@@ -8199,13 +8199,13 @@
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1244,10 +1244,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1355,9 +1351,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>apnIdAlreadySeted</t>
-  </si>
-  <si>
     <t>服务器繁忙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1621,6 +1614,14 @@
   </si>
   <si>
     <t>youHaveProductInSellCanNotSwitchServer</t>
+  </si>
+  <si>
+    <t>pushIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5833,8 +5834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5856,13 +5857,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6252,13 +6253,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7011,13 +7012,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7066,24 +7067,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7523,7 +7524,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7715,29 +7716,29 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
@@ -7748,7 +7749,7 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
@@ -7759,7 +7760,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
@@ -7770,29 +7771,29 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7803,409 +7804,409 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B208" s="1">
         <v>706</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1">
         <v>707</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1">
         <v>708</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B211" s="1">
         <v>709</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B212" s="1">
         <v>710</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B213" s="1">
         <v>711</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1244,6 +1244,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ApnId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1351,6 +1355,9 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>apnIdAlreadySeted</t>
+  </si>
+  <si>
     <t>服务器繁忙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1614,14 +1621,6 @@
   </si>
   <si>
     <t>youHaveProductInSellCanNotSwitchServer</t>
-  </si>
-  <si>
-    <t>pushIdAlreadySeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>pushId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5834,8 +5833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5857,13 +5856,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6253,13 +6252,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7012,13 +7011,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7067,24 +7066,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7524,7 +7523,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7716,29 +7715,29 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B173" s="3">
         <v>671</v>
@@ -7749,7 +7748,7 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B174" s="3">
         <v>672</v>
@@ -7760,7 +7759,7 @@
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B175" s="3">
         <v>673</v>
@@ -7771,29 +7770,29 @@
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="B176" s="3">
         <v>674</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B177" s="3">
         <v>675</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B178" s="3">
         <v>676</v>
@@ -7804,409 +7803,409 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B179" s="3">
         <v>677</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B180" s="3">
         <v>678</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B181" s="3">
         <v>679</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B182" s="3">
         <v>680</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B183" s="3">
         <v>681</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B184" s="3">
         <v>682</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B185" s="3">
         <v>683</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B186" s="3">
         <v>684</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B187" s="3">
         <v>685</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B188" s="3">
         <v>686</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B189" s="1">
         <v>687</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1">
         <v>688</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B191" s="1">
         <v>689</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B192" s="1">
         <v>690</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>691</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>692</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B195" s="1">
         <v>693</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B196" s="1">
         <v>694</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B197" s="1">
         <v>695</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B198" s="1">
         <v>696</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B199" s="1">
         <v>697</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B200" s="1">
         <v>698</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B201" s="1">
         <v>699</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1">
         <v>700</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B203" s="1">
         <v>701</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B204" s="1">
         <v>702</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B205" s="1">
         <v>703</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B206" s="1">
         <v>704</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B207" s="1">
         <v>705</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B208" s="1">
         <v>706</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B209" s="1">
         <v>707</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B210" s="1">
         <v>708</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B211" s="1">
         <v>709</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B212" s="1">
         <v>710</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B213" s="1">
         <v>711</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B214" s="1">
         <v>712</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B215" s="1">
         <v>713</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="120" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3400" yWindow="280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1232,22 +1232,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>此GameCenter账号未被其他玩家绑定</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前玩家还未绑定GameCenter账号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此GameCenter账号已绑定当前玩家</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>ApnId已经设置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>theSoldierIsLocked</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1308,12 +1296,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>playerAlreadyBindGCAId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByOtherPlayer</t>
-  </si>
-  <si>
     <t>玩家GameCenter账号已经绑定</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1322,15 +1304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>theGCIdIsNotBindedByOtherPlayer</t>
-  </si>
-  <si>
-    <t>thePlayerDoNotBindGCId</t>
-  </si>
-  <si>
-    <t>theGCIdAlreadyBindedByCurrentPlayer</t>
-  </si>
-  <si>
     <t>玩家未在当前服务器</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1355,9 +1328,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>apnIdAlreadySeted</t>
-  </si>
-  <si>
     <t>服务器繁忙</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1621,6 +1591,26 @@
   </si>
   <si>
     <t>youHaveProductInSellCanNotSwitchServer</t>
+  </si>
+  <si>
+    <t>pushIdAlreadySeted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pushId已经设置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerAlreadyBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAlreadyBindedByOtherPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>theGCAlreadyBindedByCurrentPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1758,7 +1748,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1804">
+  <cellStyleXfs count="1808">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3567,6 +3557,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3580,7 +3574,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1804">
+  <cellStyles count="1808">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4485,6 +4479,8 @@
     <cellStyle name="超链接" xfId="1798" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1800" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5382,6 +5378,8 @@
     <cellStyle name="访问过的超链接" xfId="1799" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1801" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5831,10 +5829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5856,13 +5854,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -6252,13 +6250,13 @@
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B38" s="3">
         <v>536</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -7011,13 +7009,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7066,24 +7064,24 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B113" s="3">
         <v>611</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
@@ -7523,7 +7521,7 @@
         <v>651</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
@@ -7715,32 +7713,32 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>349</v>
+        <v>423</v>
       </c>
       <c r="B171" s="3">
         <v>669</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="B172" s="3">
         <v>670</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>353</v>
+        <v>425</v>
       </c>
       <c r="B173" s="3">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>330</v>
@@ -7748,35 +7746,35 @@
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="B174" s="3">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>331</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B175" s="3">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
@@ -7784,7 +7782,7 @@
         <v>341</v>
       </c>
       <c r="B177" s="3">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>340</v>
@@ -7792,420 +7790,398 @@
     </row>
     <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B178" s="3">
+        <v>678</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B178" s="3">
-        <v>676</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B179" s="3">
+        <v>679</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B179" s="3">
-        <v>677</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B184" s="3">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B186" s="3">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B187" s="3">
-        <v>685</v>
+        <v>366</v>
+      </c>
+      <c r="B187" s="1">
+        <v>687</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B188" s="3">
-        <v>686</v>
+        <v>367</v>
+      </c>
+      <c r="B188" s="1">
+        <v>688</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B190" s="1">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B197" s="1">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B198" s="1">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B206" s="1">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B207" s="1">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B208" s="1">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B209" s="1">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B211" s="1">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B212" s="1">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B213" s="1">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="20" customHeight="1">
-      <c r="A214" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B214" s="1">
-        <v>712</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B215" s="1">
-        <v>713</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="280" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1610,6 +1610,14 @@
   </si>
   <si>
     <t>theGCAlreadyBindedByCurrentPlayer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家还未绑定GC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNotBindGC</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5829,10 +5837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8184,6 +8192,17 @@
         <v>418</v>
       </c>
     </row>
+    <row r="214" spans="1:3" ht="20" customHeight="1">
+      <c r="A214" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B214" s="1">
+        <v>714</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="440" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -1248,18 +1248,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>IAP服务器关闭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>netErrorWithIapServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>iapServerNotAvailable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>此联盟建筑不允许移动</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1618,6 +1610,14 @@
   </si>
   <si>
     <t>playerNotBindGC</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能迁移到选定的服务器</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotSwitchToTheSelectedServer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5839,8 +5839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7017,13 +7017,13 @@
     </row>
     <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B107" s="3">
         <v>605</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="20" customHeight="1">
@@ -7072,7 +7072,7 @@
     </row>
     <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B112" s="3">
         <v>610</v>
@@ -7083,695 +7083,695 @@
     </row>
     <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="B113" s="3">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B114" s="3">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B115" s="3">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B116" s="3">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B117" s="3">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B118" s="3">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B119" s="3">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B120" s="3">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B121" s="3">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B122" s="3">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B123" s="3">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B124" s="3">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B125" s="3">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B126" s="3">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B127" s="3">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="3">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B129" s="3">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B130" s="3">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B132" s="3">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B133" s="3">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B134" s="3">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B135" s="3">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B136" s="3">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B137" s="3">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B138" s="3">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B139" s="3">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B140" s="3">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B141" s="3">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B144" s="3">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B145" s="3">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B148" s="3">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B150" s="3">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B151" s="3">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B152" s="3">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>294</v>
+        <v>412</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B153" s="3">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>414</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B154" s="3">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B155" s="3">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B156" s="3">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B157" s="3">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B158" s="3">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B159" s="3">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B160" s="3">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B161" s="3">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B162" s="3">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B163" s="3">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B164" s="3">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B165" s="3">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B166" s="3">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B167" s="3">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B168" s="3">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B169" s="3">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
       <c r="B170" s="3">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="3">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B172" s="3">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B173" s="3">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>330</v>
+        <v>420</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="B174" s="3">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B175" s="3">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>337</v>
+        <v>179</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="20" customHeight="1">
@@ -7779,10 +7779,10 @@
         <v>339</v>
       </c>
       <c r="B176" s="3">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>179</v>
+        <v>338</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="20" customHeight="1">
@@ -7790,7 +7790,7 @@
         <v>341</v>
       </c>
       <c r="B177" s="3">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>340</v>
@@ -7801,7 +7801,7 @@
         <v>343</v>
       </c>
       <c r="B178" s="3">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>342</v>
@@ -7809,13 +7809,13 @@
     </row>
     <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B179" s="3">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="20" customHeight="1">
@@ -7823,7 +7823,7 @@
         <v>349</v>
       </c>
       <c r="B180" s="3">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>348</v>
@@ -7834,7 +7834,7 @@
         <v>351</v>
       </c>
       <c r="B181" s="3">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>350</v>
@@ -7845,7 +7845,7 @@
         <v>353</v>
       </c>
       <c r="B182" s="3">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>352</v>
@@ -7856,7 +7856,7 @@
         <v>355</v>
       </c>
       <c r="B183" s="3">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>354</v>
@@ -7864,13 +7864,13 @@
     </row>
     <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B184" s="3">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="20" customHeight="1">
@@ -7878,7 +7878,7 @@
         <v>361</v>
       </c>
       <c r="B185" s="3">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>360</v>
@@ -7886,10 +7886,10 @@
     </row>
     <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B186" s="3">
-        <v>686</v>
+        <v>364</v>
+      </c>
+      <c r="B186" s="1">
+        <v>687</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>362</v>
@@ -7897,13 +7897,13 @@
     </row>
     <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B187" s="1">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="20" customHeight="1">
@@ -7911,10 +7911,10 @@
         <v>367</v>
       </c>
       <c r="B188" s="1">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
@@ -7922,7 +7922,7 @@
         <v>369</v>
       </c>
       <c r="B189" s="1">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>368</v>
@@ -7930,13 +7930,13 @@
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="20" customHeight="1">
@@ -7944,7 +7944,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7955,7 +7955,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -7966,7 +7966,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -7977,7 +7977,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -7988,7 +7988,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -7999,7 +7999,7 @@
         <v>385</v>
       </c>
       <c r="B196" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>384</v>
@@ -8007,24 +8007,24 @@
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B197" s="1">
+        <v>698</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B197" s="1">
-        <v>697</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B198" s="1">
+        <v>699</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B198" s="1">
-        <v>698</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="20" customHeight="1">
@@ -8032,7 +8032,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8043,7 +8043,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8054,7 +8054,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8065,7 +8065,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8076,7 +8076,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8087,7 +8087,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8098,7 +8098,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8109,7 +8109,7 @@
         <v>405</v>
       </c>
       <c r="B206" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>404</v>
@@ -8120,7 +8120,7 @@
         <v>407</v>
       </c>
       <c r="B207" s="1">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>406</v>
@@ -8128,43 +8128,43 @@
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B208" s="1">
+        <v>709</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>708</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="1">
+        <v>710</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="B209" s="1">
-        <v>709</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="1">
+        <v>711</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B210" s="1">
-        <v>710</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B211" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>415</v>
@@ -8172,24 +8172,24 @@
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B212" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="20" customHeight="1">
@@ -8197,7 +8197,7 @@
         <v>427</v>
       </c>
       <c r="B214" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="1780" windowWidth="28360" windowHeight="19660" tabRatio="883"/>
+    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,14 @@
   </si>
   <si>
     <t>canNotSwitchToTheSelectedServer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有龙驻防在城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>alreadyHasDefenceDragon</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1808">
+  <cellStyleXfs count="1824">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3569,6 +3577,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3582,7 +3606,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1808">
+  <cellStyles count="1824">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4489,6 +4513,14 @@
     <cellStyle name="超链接" xfId="1802" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1804" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1806" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1808" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1810" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1812" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1814" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1816" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5388,6 +5420,14 @@
     <cellStyle name="访问过的超链接" xfId="1803" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1805" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1807" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1809" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1811" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1813" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1815" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1817" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5837,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8203,6 +8243,17 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B215" s="3">
+        <v>716</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1626,6 +1626,14 @@
   </si>
   <si>
     <t>alreadyHasDefenceDragon</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要宝石加速</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>doNotNeedGemSpeedup</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5877,10 +5885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8254,6 +8262,17 @@
         <v>428</v>
       </c>
     </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" s="1">
+        <v>717</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1533,14 +1533,6 @@
   </si>
   <si>
     <t>noFreeMapArea</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家未观察此地块</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>playerNotViewThisMapIndex</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5885,10 +5877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7566,7 +7558,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7758,7 +7750,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7769,7 +7761,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7780,7 +7772,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7791,13 +7783,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -8165,43 +8157,43 @@
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B207" s="1">
+        <v>709</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B207" s="1">
-        <v>708</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" s="1">
+        <v>710</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="B208" s="1">
-        <v>709</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="1">
+        <v>711</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B209" s="1">
-        <v>710</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B210" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>413</v>
@@ -8209,24 +8201,24 @@
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B211" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="20" customHeight="1">
@@ -8234,7 +8226,7 @@
         <v>425</v>
       </c>
       <c r="B213" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8244,8 +8236,8 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="1">
-        <v>715</v>
+      <c r="B214" s="3">
+        <v>716</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
@@ -8255,22 +8247,11 @@
       <c r="A215" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B215" s="3">
-        <v>716</v>
+      <c r="B215" s="1">
+        <v>717</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="20" customHeight="1">
-      <c r="A216" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" s="1">
-        <v>717</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1381,14 +1381,6 @@
   </si>
   <si>
     <t>firstJoinAllianceRewardAlreadyGeted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手引导已经完成</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>fteAlreadyFinished</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5877,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C215"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C189" sqref="C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5902,13 +5894,13 @@
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="3">
         <v>500</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -7558,7 +7550,7 @@
         <v>651</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="20" customHeight="1">
@@ -7750,7 +7742,7 @@
     </row>
     <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B170" s="3">
         <v>669</v>
@@ -7761,7 +7753,7 @@
     </row>
     <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B171" s="3">
         <v>670</v>
@@ -7772,7 +7764,7 @@
     </row>
     <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B172" s="3">
         <v>673</v>
@@ -7783,13 +7775,13 @@
     </row>
     <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B173" s="3">
         <v>674</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="20" customHeight="1">
@@ -7959,13 +7951,13 @@
     </row>
     <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B189" s="1">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="20" customHeight="1">
@@ -7973,7 +7965,7 @@
         <v>373</v>
       </c>
       <c r="B190" s="1">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>372</v>
@@ -7984,7 +7976,7 @@
         <v>375</v>
       </c>
       <c r="B191" s="1">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>374</v>
@@ -7995,7 +7987,7 @@
         <v>377</v>
       </c>
       <c r="B192" s="1">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>376</v>
@@ -8006,7 +7998,7 @@
         <v>379</v>
       </c>
       <c r="B193" s="1">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>378</v>
@@ -8017,7 +8009,7 @@
         <v>381</v>
       </c>
       <c r="B194" s="1">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>380</v>
@@ -8028,7 +8020,7 @@
         <v>383</v>
       </c>
       <c r="B195" s="1">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>382</v>
@@ -8036,24 +8028,24 @@
     </row>
     <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B196" s="1">
+        <v>698</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B196" s="1">
-        <v>697</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B197" s="1">
+        <v>699</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B197" s="1">
-        <v>698</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="20" customHeight="1">
@@ -8061,7 +8053,7 @@
         <v>389</v>
       </c>
       <c r="B198" s="1">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>388</v>
@@ -8072,7 +8064,7 @@
         <v>391</v>
       </c>
       <c r="B199" s="1">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>390</v>
@@ -8083,7 +8075,7 @@
         <v>393</v>
       </c>
       <c r="B200" s="1">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>392</v>
@@ -8094,7 +8086,7 @@
         <v>395</v>
       </c>
       <c r="B201" s="1">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>394</v>
@@ -8105,7 +8097,7 @@
         <v>397</v>
       </c>
       <c r="B202" s="1">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>396</v>
@@ -8116,7 +8108,7 @@
         <v>399</v>
       </c>
       <c r="B203" s="1">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>398</v>
@@ -8127,7 +8119,7 @@
         <v>401</v>
       </c>
       <c r="B204" s="1">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>400</v>
@@ -8138,7 +8130,7 @@
         <v>403</v>
       </c>
       <c r="B205" s="1">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>402</v>
@@ -8146,43 +8138,43 @@
     </row>
     <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B206" s="1">
+        <v>709</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B206" s="1">
-        <v>707</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B207" s="1">
+        <v>710</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B207" s="1">
-        <v>709</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" s="1">
+        <v>711</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B208" s="1">
-        <v>710</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B209" s="1">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>411</v>
@@ -8190,24 +8182,24 @@
     </row>
     <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B210" s="1">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B211" s="1">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="20" customHeight="1">
@@ -8215,7 +8207,7 @@
         <v>423</v>
       </c>
       <c r="B212" s="1">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>422</v>
@@ -8225,8 +8217,8 @@
       <c r="A213" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B213" s="1">
-        <v>715</v>
+      <c r="B213" s="3">
+        <v>716</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>424</v>
@@ -8236,22 +8228,11 @@
       <c r="A214" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B214" s="3">
-        <v>716</v>
+      <c r="B214" s="1">
+        <v>717</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="20" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B215" s="1">
-        <v>717</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/Errors.xlsx
+++ b/datas/shared/Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="440" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4620" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="24" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="438">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -1618,6 +1618,46 @@
   </si>
   <si>
     <t>doNotNeedGemSpeedup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>playerNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>allianceNameNotLegal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟昵称不合法</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的活动信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalidActivity</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可领取的奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>noAvailableRewardsCanGet</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>canNotQuitAllianceNow</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不能退出联盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1796,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1824">
+  <cellStyleXfs count="1832">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3585,6 +3625,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3598,7 +3646,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1824">
+  <cellStyles count="1832">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -4513,6 +4561,10 @@
     <cellStyle name="超链接" xfId="1818" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1820" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1822" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1824" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1830" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -5420,6 +5472,10 @@
     <cellStyle name="访问过的超链接" xfId="1819" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1821" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1823" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1825" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1831" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5869,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="C220" sqref="C220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8235,6 +8291,61 @@
         <v>426</v>
       </c>
     </row>
+    <row r="215" spans="1:3" ht="20" customHeight="1">
+      <c r="A215" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B215" s="1">
+        <v>718</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="20" customHeight="1">
+      <c r="A216" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B216" s="1">
+        <v>719</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="20" customHeight="1">
+      <c r="A217" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B217" s="1">
+        <v>720</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="20" customHeight="1">
+      <c r="A218" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B218" s="1">
+        <v>721</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="20" customHeight="1">
+      <c r="A219" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B219" s="1">
+        <v>722</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
